--- a/MAXSIZE_diff_size_chrstcs.xlsx
+++ b/MAXSIZE_diff_size_chrstcs.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YaDisk\WORK\Astra\стеганография\After 2014\algo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YaDisk\WORK\Astra\stego\After 2014\algo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="9120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -143,7 +143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,7 +178,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,64 +506,64 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.42734781901041663</v>
+        <v>0.64872233072916674</v>
       </c>
       <c r="C3">
-        <v>0.40958658854166674</v>
+        <v>0.53865559895833326</v>
       </c>
       <c r="D3">
-        <v>0.40134684244791669</v>
+        <v>0.43863932291666663</v>
       </c>
       <c r="E3">
-        <v>0.39719645182291669</v>
+        <v>0.40602620442708337</v>
       </c>
       <c r="F3">
-        <v>0.40708414713541663</v>
+        <v>0.4610137939453125</v>
       </c>
       <c r="G3">
-        <v>0.40388997395833337</v>
+        <v>0.43617757161458326</v>
       </c>
       <c r="H3">
-        <v>0.4001922607421875</v>
+        <v>0.40974426269531256</v>
       </c>
       <c r="I3">
-        <v>0.39911397298177087</v>
+        <v>0.4006805419921875</v>
       </c>
       <c r="J3">
-        <v>0.39911015828450502</v>
+        <v>0.41419347127278594</v>
       </c>
       <c r="K3">
-        <v>0.39831924438476546</v>
+        <v>0.40669377644856752</v>
       </c>
       <c r="L3">
-        <v>0.39747492472330709</v>
+        <v>0.40000915527343733</v>
       </c>
       <c r="M3">
-        <v>0.39720153808593728</v>
+        <v>0.39843495686848962</v>
       </c>
       <c r="N3">
-        <v>0.39817396799723298</v>
+        <v>0.40172767639160156</v>
       </c>
       <c r="O3">
-        <v>0.39802678426106763</v>
+        <v>0.40016428629557288</v>
       </c>
       <c r="P3">
-        <v>0.39779949188232411</v>
+        <v>0.3983971277872721</v>
       </c>
       <c r="Q3">
-        <v>0.39773559570312489</v>
+        <v>0.39787101745605469</v>
       </c>
       <c r="R3">
-        <v>0.39745171864827411</v>
+        <v>0.39833196004231708</v>
       </c>
       <c r="S3">
-        <v>0.3974143664042149</v>
+        <v>0.3979424635569247</v>
       </c>
       <c r="T3">
-        <v>0.39735825856526624</v>
+        <v>0.39751394589741984</v>
       </c>
       <c r="U3">
-        <v>0.39733123779296808</v>
+        <v>0.39736278851826912</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -571,64 +571,64 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.3328086731407194E-3</v>
+        <v>5.0592686194603663E-3</v>
       </c>
       <c r="C4">
-        <v>3.1942920355948093E-3</v>
+        <v>4.2008780019078167E-3</v>
       </c>
       <c r="D4">
-        <v>3.1300317398260877E-3</v>
+        <v>3.4208690784534117E-3</v>
       </c>
       <c r="E4">
-        <v>3.0976635908462873E-3</v>
+        <v>3.1665252411268432E-3</v>
       </c>
       <c r="F4">
-        <v>3.17459549352295E-3</v>
+        <v>3.5951591900822964E-3</v>
       </c>
       <c r="G4">
-        <v>3.1496861281132293E-3</v>
+        <v>3.401476974643337E-3</v>
       </c>
       <c r="H4">
-        <v>3.1208499678379636E-3</v>
+        <v>3.1953400764995169E-3</v>
       </c>
       <c r="I4">
-        <v>3.1124410737824524E-3</v>
+        <v>3.1246577689197043E-3</v>
       </c>
       <c r="J4">
-        <v>3.1124948432164254E-3</v>
+        <v>3.2301233548444829E-3</v>
       </c>
       <c r="K4">
-        <v>3.1063268332490804E-3</v>
+        <v>3.1716363407168248E-3</v>
       </c>
       <c r="L4">
-        <v>3.0997423338627178E-3</v>
+        <v>3.1195057484365435E-3</v>
       </c>
       <c r="M4">
-        <v>3.0976103046939409E-3</v>
+        <v>3.1072292269902833E-3</v>
       </c>
       <c r="N4">
-        <v>3.1050036668283498E-3</v>
+        <v>3.1327158692378994E-3</v>
       </c>
       <c r="O4">
-        <v>3.1038559121351196E-3</v>
+        <v>3.1205243841810814E-3</v>
       </c>
       <c r="P4">
-        <v>3.1020834615829388E-3</v>
+        <v>3.1067438910068542E-3</v>
       </c>
       <c r="Q4">
-        <v>3.1015851922668713E-3</v>
+        <v>3.1026412257427159E-3</v>
       </c>
       <c r="R4">
-        <v>3.0995177966293952E-3</v>
+        <v>3.1063823382533316E-3</v>
       </c>
       <c r="S4">
-        <v>3.0992265060404418E-3</v>
+        <v>3.1033448591544772E-3</v>
       </c>
       <c r="T4">
-        <v>3.098788950389801E-3</v>
+        <v>3.1000030743552477E-3</v>
       </c>
       <c r="U4">
-        <v>3.0985782295382173E-3</v>
+        <v>3.0988242771208016E-3</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -636,64 +636,64 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>33137.016644542018</v>
+        <v>9374.5899006239888</v>
       </c>
       <c r="C5">
-        <v>44380.580415754921</v>
+        <v>19039.591879840413</v>
       </c>
       <c r="D5">
-        <v>48432.038804039599</v>
+        <v>39255.339193548389</v>
       </c>
       <c r="E5">
-        <v>49647.223825794281</v>
+        <v>46978.353134198718</v>
       </c>
       <c r="F5">
-        <v>43337.140916450415</v>
+        <v>24301.094732325524</v>
       </c>
       <c r="G5">
-        <v>46733.835745037075</v>
+        <v>34689.255108562502</v>
       </c>
       <c r="H5">
-        <v>49110.670013698116</v>
+        <v>46321.144372666393</v>
       </c>
       <c r="I5">
-        <v>49438.716490606617</v>
+        <v>48926.212174326742</v>
       </c>
       <c r="J5">
-        <v>48358.908538674521</v>
+        <v>38200.315209678956</v>
       </c>
       <c r="K5">
-        <v>49266.77004933916</v>
+        <v>44966.951893022895</v>
       </c>
       <c r="L5">
-        <v>49816.310834830445</v>
+        <v>49023.658163840038</v>
       </c>
       <c r="M5">
-        <v>49901.835531093529</v>
+        <v>49519.190965352012</v>
       </c>
       <c r="N5">
-        <v>49437.542689851711</v>
+        <v>46587.36503718578</v>
       </c>
       <c r="O5">
-        <v>49636.113625702448</v>
+        <v>48427.359799522543</v>
       </c>
       <c r="P5">
-        <v>49795.322990006971</v>
+        <v>49605.022342360608</v>
       </c>
       <c r="Q5">
-        <v>49815.003840220124</v>
+        <v>49775.657684624392</v>
       </c>
       <c r="R5">
-        <v>49770.936129498252</v>
+        <v>49036.750666812281</v>
       </c>
       <c r="S5">
-        <v>49822.084285142155</v>
+        <v>49518.553532235594</v>
       </c>
       <c r="T5">
-        <v>49862.955511387292</v>
+        <v>49812.882140652415</v>
       </c>
       <c r="U5">
-        <v>49871.233102038459</v>
+        <v>49860.742664350488</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -701,64 +701,64 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.99996982226822873</v>
+        <v>0.99989332866710967</v>
       </c>
       <c r="C6">
-        <v>0.99997746762231066</v>
+        <v>0.99994747786579086</v>
       </c>
       <c r="D6">
-        <v>0.99997935251076164</v>
+        <v>0.99997452575826518</v>
       </c>
       <c r="E6">
-        <v>0.99997985788684762</v>
+        <v>0.99997871360034385</v>
       </c>
       <c r="F6">
-        <v>0.99997692510445191</v>
+        <v>0.99995884959048076</v>
       </c>
       <c r="G6">
-        <v>0.99997860222718593</v>
+        <v>0.99997117262977053</v>
       </c>
       <c r="H6">
-        <v>0.99997963782616439</v>
+        <v>0.9999784115868996</v>
       </c>
       <c r="I6">
-        <v>0.99997977293766938</v>
+        <v>0.99997956105826391</v>
       </c>
       <c r="J6">
-        <v>0.999979321286807</v>
+        <v>0.99997382220553654</v>
       </c>
       <c r="K6">
-        <v>0.99997970234299915</v>
+        <v>0.9999777614457307</v>
       </c>
       <c r="L6">
-        <v>0.99997992625340493</v>
+        <v>0.9999796016854422</v>
       </c>
       <c r="M6">
-        <v>0.9999799606569707</v>
+        <v>0.99997980580901047</v>
       </c>
       <c r="N6">
-        <v>0.99997977245741609</v>
+        <v>0.99997853495257349</v>
       </c>
       <c r="O6">
-        <v>0.99997985337837803</v>
+        <v>0.99997935051582121</v>
       </c>
       <c r="P6">
-        <v>0.99997991779267703</v>
+        <v>0.99997984075094049</v>
       </c>
       <c r="Q6">
-        <v>0.99997992572673067</v>
+        <v>0.99997990985862339</v>
       </c>
       <c r="R6">
-        <v>0.99997990795275782</v>
+        <v>0.99997960713166345</v>
       </c>
       <c r="S6">
-        <v>0.99997992857957774</v>
+        <v>0.99997980554905852</v>
       </c>
       <c r="T6">
-        <v>0.99997994503154208</v>
+        <v>0.99997992487169929</v>
       </c>
       <c r="U6">
-        <v>0.99997994836025106</v>
+        <v>0.99997994414149161</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -766,64 +766,64 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.59771728515624978</v>
+        <v>2.1127929687500009</v>
       </c>
       <c r="C7">
-        <v>0.4462890625</v>
+        <v>1.0402832031249996</v>
       </c>
       <c r="D7">
-        <v>0.40895589192708337</v>
+        <v>0.50455729166666674</v>
       </c>
       <c r="E7">
-        <v>0.39894612630208337</v>
+        <v>0.42161051432291674</v>
       </c>
       <c r="F7">
-        <v>0.45864868164062489</v>
+        <v>0.81792704264322957</v>
       </c>
       <c r="G7">
-        <v>0.42531331380208337</v>
+        <v>0.57298787434895826</v>
       </c>
       <c r="H7">
-        <v>0.40472920735677093</v>
+        <v>0.42910257975260435</v>
       </c>
       <c r="I7">
-        <v>0.40204366048177098</v>
+        <v>0.40625508626302098</v>
       </c>
       <c r="J7">
-        <v>0.41195297241210915</v>
+        <v>0.52150344848632746</v>
       </c>
       <c r="K7">
-        <v>0.40436172485351551</v>
+        <v>0.44302749633789074</v>
       </c>
       <c r="L7">
-        <v>0.39990107218424464</v>
+        <v>0.40636698404947919</v>
       </c>
       <c r="M7">
-        <v>0.39921569824218728</v>
+        <v>0.40230051676432277</v>
       </c>
       <c r="N7">
-        <v>0.40279420216878259</v>
+        <v>0.42743682861328081</v>
       </c>
       <c r="O7">
-        <v>0.40118281046549487</v>
+        <v>0.41119639078776071</v>
       </c>
       <c r="P7">
-        <v>0.39990011850992846</v>
+        <v>0.40143426259358728</v>
       </c>
       <c r="Q7">
-        <v>0.39974212646484386</v>
+        <v>0.40005811055501328</v>
       </c>
       <c r="R7">
-        <v>0.40006748835245737</v>
+        <v>0.40605735778808549</v>
       </c>
       <c r="S7">
-        <v>0.39965677261352506</v>
+        <v>0.40210652351379328</v>
       </c>
       <c r="T7">
-        <v>0.39932918548583951</v>
+        <v>0.3997306029001868</v>
       </c>
       <c r="U7">
-        <v>0.39926290512084928</v>
+        <v>0.39934690793355265</v>
       </c>
     </row>
   </sheetData>
